--- a/correlation_matrix.xlsx
+++ b/correlation_matrix.xlsx
@@ -424,72 +424,72 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9645203799684721</v>
+        <v>0.9645203799684711</v>
       </c>
       <c r="C2">
-        <v>0.9565083075865515</v>
+        <v>0.9565083075865507</v>
       </c>
       <c r="D2">
-        <v>0.9937635317779667</v>
+        <v>0.9937635317779665</v>
       </c>
       <c r="E2">
-        <v>0.9823820359166217</v>
+        <v>0.9823820359166231</v>
       </c>
       <c r="F2">
-        <v>0.9875250769066858</v>
+        <v>0.9875250769066861</v>
       </c>
       <c r="G2">
         <v>-0.1095679243910892</v>
       </c>
       <c r="H2">
-        <v>-0.5037986563958511</v>
+        <v>-0.503798656395851</v>
       </c>
       <c r="I2">
-        <v>-0.3687263102820616</v>
+        <v>-0.3687263102820612</v>
       </c>
       <c r="J2">
         <v>-0.4017976338359295</v>
       </c>
       <c r="K2">
-        <v>0.9217472512450315</v>
+        <v>0.9217472512450312</v>
       </c>
       <c r="L2">
-        <v>-0.7105169407222814</v>
+        <v>-0.710516940722282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.9645203799684721</v>
+        <v>0.9645203799684711</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9969483756009734</v>
+        <v>0.9969483756009752</v>
       </c>
       <c r="D3">
-        <v>0.9378504052016321</v>
+        <v>0.9378504052016305</v>
       </c>
       <c r="E3">
-        <v>0.9950693261897913</v>
+        <v>0.9950693261897919</v>
       </c>
       <c r="F3">
-        <v>0.964742121859086</v>
+        <v>0.9647421218590849</v>
       </c>
       <c r="G3">
-        <v>-0.1114017877295347</v>
+        <v>-0.1114017877295348</v>
       </c>
       <c r="H3">
-        <v>-0.5248365896367182</v>
+        <v>-0.5248365896367186</v>
       </c>
       <c r="I3">
-        <v>-0.459625370062668</v>
+        <v>-0.4596253700626673</v>
       </c>
       <c r="J3">
-        <v>-0.5003978827087711</v>
+        <v>-0.5003978827087708</v>
       </c>
       <c r="K3">
-        <v>0.9884723747877261</v>
+        <v>0.988472374787726</v>
       </c>
       <c r="L3">
         <v>-0.8085976640579129</v>
@@ -497,51 +497,51 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.9565083075865515</v>
+        <v>0.9565083075865507</v>
       </c>
       <c r="B4">
-        <v>0.9969483756009734</v>
+        <v>0.9969483756009752</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9280900547668862</v>
+        <v>0.9280900547668853</v>
       </c>
       <c r="E4">
         <v>0.9915437458494439</v>
       </c>
       <c r="F4">
-        <v>0.9602937799276533</v>
+        <v>0.9602937799276536</v>
       </c>
       <c r="G4">
-        <v>-0.09585187778496808</v>
+        <v>-0.09585187778496816</v>
       </c>
       <c r="H4">
-        <v>-0.5262242508750361</v>
+        <v>-0.5262242508750368</v>
       </c>
       <c r="I4">
-        <v>-0.4513350991027023</v>
+        <v>-0.4513350991027019</v>
       </c>
       <c r="J4">
-        <v>-0.4926828954410576</v>
+        <v>-0.4926828954410575</v>
       </c>
       <c r="K4">
-        <v>0.9877647163811512</v>
+        <v>0.9877647163811519</v>
       </c>
       <c r="L4">
-        <v>-0.7985131997020939</v>
+        <v>-0.7985131997020942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.9937635317779667</v>
+        <v>0.9937635317779665</v>
       </c>
       <c r="B5">
-        <v>0.9378504052016321</v>
+        <v>0.9378504052016305</v>
       </c>
       <c r="C5">
-        <v>0.9280900547668862</v>
+        <v>0.9280900547668853</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -550,33 +550,33 @@
         <v>0.9607451861450308</v>
       </c>
       <c r="F5">
-        <v>0.9848767055146367</v>
+        <v>0.9848767055146368</v>
       </c>
       <c r="G5">
         <v>-0.07687592862390905</v>
       </c>
       <c r="H5">
-        <v>-0.5105485460004306</v>
+        <v>-0.5105485460004304</v>
       </c>
       <c r="I5">
-        <v>-0.311586393564907</v>
+        <v>-0.3115863935649066</v>
       </c>
       <c r="J5">
-        <v>-0.3431522093539874</v>
+        <v>-0.3431522093539872</v>
       </c>
       <c r="K5">
-        <v>0.8853537004277435</v>
+        <v>0.8853537004277439</v>
       </c>
       <c r="L5">
-        <v>-0.6668712118362384</v>
+        <v>-0.6668712118362388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.9823820359166217</v>
+        <v>0.9823820359166231</v>
       </c>
       <c r="B6">
-        <v>0.9950693261897913</v>
+        <v>0.9950693261897919</v>
       </c>
       <c r="C6">
         <v>0.9915437458494439</v>
@@ -588,63 +588,63 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.9779464190783449</v>
+        <v>0.9779464190783453</v>
       </c>
       <c r="G6">
-        <v>-0.1376780551838165</v>
+        <v>-0.1376780551838166</v>
       </c>
       <c r="H6">
         <v>-0.5000726475663503</v>
       </c>
       <c r="I6">
-        <v>-0.4445473830873897</v>
+        <v>-0.4445473830873896</v>
       </c>
       <c r="J6">
-        <v>-0.4803685554923728</v>
+        <v>-0.4803685554923727</v>
       </c>
       <c r="K6">
-        <v>0.97566135424246</v>
+        <v>0.9756613542424596</v>
       </c>
       <c r="L6">
-        <v>-0.7742955179001243</v>
+        <v>-0.7742955179001251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.9875250769066858</v>
+        <v>0.9875250769066861</v>
       </c>
       <c r="B7">
-        <v>0.964742121859086</v>
+        <v>0.9647421218590849</v>
       </c>
       <c r="C7">
-        <v>0.9602937799276533</v>
+        <v>0.9602937799276536</v>
       </c>
       <c r="D7">
-        <v>0.9848767055146367</v>
+        <v>0.9848767055146368</v>
       </c>
       <c r="E7">
-        <v>0.9779464190783449</v>
+        <v>0.9779464190783453</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>-0.09005642199451365</v>
+        <v>-0.09005642199451371</v>
       </c>
       <c r="H7">
-        <v>-0.5136310422926069</v>
+        <v>-0.5136310422926075</v>
       </c>
       <c r="I7">
-        <v>-0.2987990657834823</v>
+        <v>-0.2987990657834818</v>
       </c>
       <c r="J7">
-        <v>-0.3321755702027564</v>
+        <v>-0.3321755702027567</v>
       </c>
       <c r="K7">
-        <v>0.9276050114730515</v>
+        <v>0.9276050114730503</v>
       </c>
       <c r="L7">
-        <v>-0.669257200524727</v>
+        <v>-0.6692572005247266</v>
       </c>
     </row>
     <row r="8">
@@ -652,113 +652,113 @@
         <v>-0.1095679243910892</v>
       </c>
       <c r="B8">
-        <v>-0.1114017877295347</v>
+        <v>-0.1114017877295348</v>
       </c>
       <c r="C8">
-        <v>-0.09585187778496808</v>
+        <v>-0.09585187778496816</v>
       </c>
       <c r="D8">
         <v>-0.07687592862390905</v>
       </c>
       <c r="E8">
-        <v>-0.1376780551838165</v>
+        <v>-0.1376780551838166</v>
       </c>
       <c r="F8">
-        <v>-0.09005642199451365</v>
+        <v>-0.09005642199451371</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-0.6052633552573145</v>
+        <v>-0.6052633552573156</v>
       </c>
       <c r="I8">
-        <v>0.4081474163678322</v>
+        <v>0.408147416367832</v>
       </c>
       <c r="J8">
-        <v>0.3524460147031231</v>
+        <v>0.3524460147031224</v>
       </c>
       <c r="K8">
         <v>-0.1536750597973955</v>
       </c>
       <c r="L8">
-        <v>-0.08199999390487178</v>
+        <v>-0.0819999939048718</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.5037986563958511</v>
+        <v>-0.503798656395851</v>
       </c>
       <c r="B9">
-        <v>-0.5248365896367182</v>
+        <v>-0.5248365896367186</v>
       </c>
       <c r="C9">
-        <v>-0.5262242508750361</v>
+        <v>-0.5262242508750368</v>
       </c>
       <c r="D9">
-        <v>-0.5105485460004306</v>
+        <v>-0.5105485460004304</v>
       </c>
       <c r="E9">
         <v>-0.5000726475663503</v>
       </c>
       <c r="F9">
-        <v>-0.5136310422926069</v>
+        <v>-0.5136310422926075</v>
       </c>
       <c r="G9">
-        <v>-0.6052633552573145</v>
+        <v>-0.6052633552573156</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I9">
-        <v>-0.02541870435142262</v>
+        <v>-0.02541870435142232</v>
       </c>
       <c r="J9">
-        <v>0.06578024881360887</v>
+        <v>0.06578024881360868</v>
       </c>
       <c r="K9">
-        <v>-0.4809773422196911</v>
+        <v>-0.4809773422196914</v>
       </c>
       <c r="L9">
-        <v>0.6059395871907965</v>
+        <v>0.6059395871907975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.3687263102820616</v>
+        <v>-0.3687263102820612</v>
       </c>
       <c r="B10">
-        <v>-0.459625370062668</v>
+        <v>-0.4596253700626673</v>
       </c>
       <c r="C10">
-        <v>-0.4513350991027023</v>
+        <v>-0.4513350991027019</v>
       </c>
       <c r="D10">
-        <v>-0.311586393564907</v>
+        <v>-0.3115863935649066</v>
       </c>
       <c r="E10">
-        <v>-0.4445473830873897</v>
+        <v>-0.4445473830873896</v>
       </c>
       <c r="F10">
-        <v>-0.2987990657834823</v>
+        <v>-0.2987990657834818</v>
       </c>
       <c r="G10">
-        <v>0.4081474163678322</v>
+        <v>0.408147416367832</v>
       </c>
       <c r="H10">
-        <v>-0.02541870435142262</v>
+        <v>-0.02541870435142232</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9915707410819473</v>
+        <v>0.9915707410819449</v>
       </c>
       <c r="K10">
-        <v>-0.4921907140746172</v>
+        <v>-0.4921907140746167</v>
       </c>
       <c r="L10">
-        <v>0.6822508280483902</v>
+        <v>0.6822508280483904</v>
       </c>
     </row>
     <row r="11">
@@ -766,113 +766,113 @@
         <v>-0.4017976338359295</v>
       </c>
       <c r="B11">
-        <v>-0.5003978827087711</v>
+        <v>-0.5003978827087708</v>
       </c>
       <c r="C11">
-        <v>-0.4926828954410576</v>
+        <v>-0.4926828954410575</v>
       </c>
       <c r="D11">
-        <v>-0.3431522093539874</v>
+        <v>-0.3431522093539872</v>
       </c>
       <c r="E11">
-        <v>-0.4803685554923728</v>
+        <v>-0.4803685554923727</v>
       </c>
       <c r="F11">
-        <v>-0.3321755702027564</v>
+        <v>-0.3321755702027567</v>
       </c>
       <c r="G11">
-        <v>0.3524460147031231</v>
+        <v>0.3524460147031224</v>
       </c>
       <c r="H11">
-        <v>0.06578024881360887</v>
+        <v>0.06578024881360868</v>
       </c>
       <c r="I11">
-        <v>0.9915707410819473</v>
+        <v>0.9915707410819449</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K11">
-        <v>-0.5303814542171028</v>
+        <v>-0.5303814542171027</v>
       </c>
       <c r="L11">
-        <v>0.7388430446354725</v>
+        <v>0.7388430446354729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.9217472512450315</v>
+        <v>0.9217472512450312</v>
       </c>
       <c r="B12">
-        <v>0.9884723747877261</v>
+        <v>0.988472374787726</v>
       </c>
       <c r="C12">
-        <v>0.9877647163811512</v>
+        <v>0.9877647163811519</v>
       </c>
       <c r="D12">
-        <v>0.8853537004277435</v>
+        <v>0.8853537004277439</v>
       </c>
       <c r="E12">
-        <v>0.97566135424246</v>
+        <v>0.9756613542424596</v>
       </c>
       <c r="F12">
-        <v>0.9276050114730515</v>
+        <v>0.9276050114730503</v>
       </c>
       <c r="G12">
         <v>-0.1536750597973955</v>
       </c>
       <c r="H12">
-        <v>-0.4809773422196911</v>
+        <v>-0.4809773422196914</v>
       </c>
       <c r="I12">
-        <v>-0.4921907140746172</v>
+        <v>-0.4921907140746167</v>
       </c>
       <c r="J12">
-        <v>-0.5303814542171028</v>
+        <v>-0.5303814542171027</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>-0.8129681773589761</v>
+        <v>-0.8129681773589764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.7105169407222814</v>
+        <v>-0.710516940722282</v>
       </c>
       <c r="B13">
         <v>-0.8085976640579129</v>
       </c>
       <c r="C13">
-        <v>-0.7985131997020939</v>
+        <v>-0.7985131997020942</v>
       </c>
       <c r="D13">
-        <v>-0.6668712118362384</v>
+        <v>-0.6668712118362388</v>
       </c>
       <c r="E13">
-        <v>-0.7742955179001243</v>
+        <v>-0.7742955179001251</v>
       </c>
       <c r="F13">
-        <v>-0.669257200524727</v>
+        <v>-0.6692572005247266</v>
       </c>
       <c r="G13">
-        <v>-0.08199999390487178</v>
+        <v>-0.0819999939048718</v>
       </c>
       <c r="H13">
-        <v>0.6059395871907965</v>
+        <v>0.6059395871907975</v>
       </c>
       <c r="I13">
-        <v>0.6822508280483902</v>
+        <v>0.6822508280483904</v>
       </c>
       <c r="J13">
-        <v>0.7388430446354725</v>
+        <v>0.7388430446354729</v>
       </c>
       <c r="K13">
-        <v>-0.8129681773589761</v>
+        <v>-0.8129681773589764</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
